--- a/members_list.xlsx
+++ b/members_list.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,61 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>shaun</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>simons</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>emma</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10 test st</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>VIC</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0383610000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0490161051</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>shaun@test.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
